--- a/Documentacion/Negocios/TP Adm. Proy. - Cashflows.xlsx
+++ b/Documentacion/Negocios/TP Adm. Proy. - Cashflows.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>Mes</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Año 3 - FEB</t>
   </si>
   <si>
-    <t>Año 0</t>
-  </si>
-  <si>
     <t>Año 3 - MAR</t>
   </si>
   <si>
@@ -130,16 +127,48 @@
   </si>
   <si>
     <t>Año 3</t>
+  </si>
+  <si>
+    <t>Lider de proyecto</t>
+  </si>
+  <si>
+    <t>Programador</t>
+  </si>
+  <si>
+    <t>Artista Modelado 3D</t>
+  </si>
+  <si>
+    <t>Productor de Sonido</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Community Manager</t>
+  </si>
+  <si>
+    <t>Costo por hora</t>
+  </si>
+  <si>
+    <t>Cantidad de empleados</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Horas totales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$$]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-540A]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -169,6 +198,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -184,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -244,11 +279,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -266,6 +509,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,7 +1201,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4">
         <v>1700</v>
@@ -960,7 +1225,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4">
         <v>1800</v>
@@ -984,7 +1249,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4">
         <v>1900</v>
@@ -1008,7 +1273,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4">
         <v>2000</v>
@@ -1032,7 +1297,7 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4">
         <v>2100</v>
@@ -1056,7 +1321,7 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4">
         <v>2200</v>
@@ -1080,7 +1345,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="4">
         <v>2300</v>
@@ -1104,7 +1369,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4">
         <v>2400</v>
@@ -1128,7 +1393,7 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4">
         <v>2500</v>
@@ -1152,7 +1417,7 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4">
         <v>2600</v>
@@ -1184,7 +1449,7 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1216,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1283,7 +1548,7 @@
     </row>
     <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1298,80 +1563,65 @@
         <v>0.5</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F23" si="0">B3*C3*D3*E3</f>
+        <f t="shared" ref="F3:F22" si="0">B3*C3*D3*E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5">
-        <f>F3</f>
+      <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <v>61800</v>
+        <f>125226.1+61800</f>
+        <v>187026.1</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I4" si="1">G3-H3</f>
-        <v>-61800</v>
+        <f t="shared" ref="I3" si="1">G3-H3</f>
+        <v>-187026.1</v>
       </c>
       <c r="J3" s="8">
         <v>0</v>
       </c>
       <c r="K3" s="8">
-        <f>61800</f>
-        <v>61800</v>
-      </c>
-      <c r="L3" s="10">
-        <f t="shared" ref="L3:L4" si="2">J3-K3</f>
-        <v>-61800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>125226.1</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="1"/>
-        <v>-125226.1</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
         <f>125226.1*1.2</f>
         <v>150271.32</v>
       </c>
-      <c r="L4" s="10">
-        <f t="shared" si="2"/>
+      <c r="L3" s="10">
+        <f t="shared" ref="L3" si="2">J3-K3</f>
         <v>-150271.32</v>
       </c>
+    </row>
+    <row r="4" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4">
+        <v>200</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -1384,10 +1634,10 @@
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -1395,10 +1645,10 @@
     </row>
     <row r="6" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
@@ -1411,7 +1661,7 @@
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1422,13 +1672,13 @@
     </row>
     <row r="7" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1438,51 +1688,51 @@
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C8" s="4">
         <v>5</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4">
         <v>0.5</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C9" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -1492,21 +1742,21 @@
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>7200</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="C10" s="4">
         <v>6</v>
@@ -1519,24 +1769,41 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>7200</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8400</v>
+      </c>
+      <c r="G10" s="5">
+        <f>SUM(F4:F10)</f>
+        <v>25000</v>
+      </c>
+      <c r="H10" s="6">
+        <v>72668</v>
+      </c>
+      <c r="I10" s="5">
+        <f>G10-H10</f>
+        <v>-47668</v>
+      </c>
+      <c r="J10" s="10">
+        <f>SUM(F4:F10)/1.5</f>
+        <v>16666.666666666668</v>
+      </c>
+      <c r="K10" s="10">
+        <f>(55168*1.2)+17500</f>
+        <v>83701.599999999991</v>
+      </c>
+      <c r="L10" s="10">
+        <f>J10-K10</f>
+        <v>-67034.93333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="C11" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
@@ -1546,38 +1813,21 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>8400</v>
-      </c>
-      <c r="G11" s="5">
-        <f>SUM(F5:F11)</f>
-        <v>25000</v>
-      </c>
-      <c r="H11" s="6">
-        <v>72668</v>
-      </c>
-      <c r="I11" s="5">
-        <f>G11-H11</f>
-        <v>-47668</v>
-      </c>
-      <c r="J11" s="10">
-        <f>SUM(F5:F11)/1.5</f>
-        <v>16666.666666666668</v>
-      </c>
-      <c r="K11" s="10">
-        <f>(55168*1.2)+17500</f>
-        <v>83701.599999999991</v>
-      </c>
-      <c r="L11" s="10">
-        <f>J11-K11</f>
-        <v>-67034.93333333332</v>
-      </c>
+        <v>10500</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="C12" s="4">
         <v>7</v>
@@ -1590,24 +1840,24 @@
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>10500</v>
+        <v>11200</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="12"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="C13" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -1617,7 +1867,7 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>11200</v>
+        <v>13600</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1631,20 +1881,20 @@
         <v>23</v>
       </c>
       <c r="B14" s="4">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="C14" s="4">
         <v>8</v>
       </c>
       <c r="D14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="4">
         <v>0.5</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>13600</v>
+        <v>21600</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1658,10 +1908,10 @@
         <v>24</v>
       </c>
       <c r="B15" s="4">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="C15" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -1671,7 +1921,7 @@
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>21600</v>
+        <v>25650</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1685,7 +1935,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="4">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="C16" s="4">
         <v>9</v>
@@ -1698,7 +1948,7 @@
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>25650</v>
+        <v>27000</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1712,10 +1962,10 @@
         <v>26</v>
       </c>
       <c r="B17" s="4">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="C17" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -1725,7 +1975,7 @@
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>31500</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1739,7 +1989,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
@@ -1752,21 +2002,21 @@
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>31500</v>
+        <v>33000</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="5"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="4">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
@@ -1779,13 +2029,13 @@
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>33000</v>
+        <v>34500</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
@@ -1793,7 +2043,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="4">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
@@ -1806,7 +2056,7 @@
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>34500</v>
+        <v>36000</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
@@ -1820,7 +2070,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="4">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
@@ -1833,7 +2083,7 @@
       </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>36000</v>
+        <v>37500</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
@@ -1842,12 +2092,12 @@
       <c r="K21" s="8"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B22" s="4">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="C22" s="4">
         <v>10</v>
@@ -1860,90 +2110,85 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>37500</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="10"/>
+        <v>39000</v>
+      </c>
+      <c r="G22" s="5">
+        <f>SUM(F11:F22)</f>
+        <v>321050</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I22" s="5">
+        <f>G22-H22</f>
+        <v>319550</v>
+      </c>
+      <c r="J22" s="10">
+        <f>SUM(F11:F22)/2.66</f>
+        <v>120695.4887218045</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="10">
+        <f>J22-K22</f>
+        <v>120695.4887218045</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2600</v>
-      </c>
-      <c r="C23" s="4">
-        <v>10</v>
-      </c>
-      <c r="D23" s="4">
-        <v>3</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="0"/>
-        <v>39000</v>
-      </c>
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="5">
-        <f>SUM(F12:F23)</f>
-        <v>321050</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
+        <f>SUM(G3:G22)</f>
+        <v>346050</v>
+      </c>
+      <c r="H23" s="5">
+        <f>SUM(H3:H22)</f>
+        <v>261194.1</v>
       </c>
       <c r="I23" s="5">
-        <f>G23-H23</f>
-        <v>321050</v>
+        <f>SUM(I3:I22)</f>
+        <v>84855.9</v>
       </c>
       <c r="J23" s="10">
-        <f>SUM(F12:F23)/2.66</f>
-        <v>120695.4887218045</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
+        <f>SUM(J3:J22)</f>
+        <v>137362.15538847118</v>
+      </c>
+      <c r="K23" s="10">
+        <f>SUM(K3:K22)</f>
+        <v>233972.91999999998</v>
       </c>
       <c r="L23" s="10">
-        <f>J23-K23</f>
-        <v>120695.4887218045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="5">
-        <f t="shared" ref="G24:L24" si="3">SUM(G3:G23)</f>
-        <v>346050</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="3"/>
-        <v>259694.1</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="3"/>
-        <v>86355.9</v>
-      </c>
-      <c r="J24" s="10">
-        <f t="shared" si="3"/>
-        <v>137362.15538847118</v>
-      </c>
-      <c r="K24" s="10">
-        <f t="shared" si="3"/>
-        <v>295772.92</v>
-      </c>
-      <c r="L24" s="10">
-        <f t="shared" si="3"/>
-        <v>-158410.76461152878</v>
+        <f>SUM(L3:L22)</f>
+        <v>-96610.764611528823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="17">
+        <f>G10*0.03</f>
+        <v>750</v>
+      </c>
+      <c r="I24" s="17">
+        <f>I22*0.3/12</f>
+        <v>7988.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="17">
+        <f>G22*0.03</f>
+        <v>9631.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f>7000*12</f>
+        <v>84000</v>
       </c>
     </row>
   </sheetData>
@@ -1951,7 +2196,7 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F23">
+  <conditionalFormatting sqref="F3:F22">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>
@@ -2140,12 +2385,168 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="B2:F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="22">
+        <v>10</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32">
+        <f>98*2</f>
+        <v>196</v>
+      </c>
+      <c r="F3" s="35">
+        <f>E3*C3</f>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="D4" s="18">
+        <v>3</v>
+      </c>
+      <c r="E4" s="33">
+        <f>1856+2612+6800</f>
+        <v>11268</v>
+      </c>
+      <c r="F4" s="36">
+        <f t="shared" ref="F4:F8" si="0">E4*C4</f>
+        <v>84510</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="D5" s="18">
+        <v>3</v>
+      </c>
+      <c r="E5" s="33">
+        <f>828*3</f>
+        <v>2484</v>
+      </c>
+      <c r="F5" s="36">
+        <f t="shared" si="0"/>
+        <v>18630</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="33">
+        <v>1584</v>
+      </c>
+      <c r="F6" s="36">
+        <f t="shared" si="0"/>
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="D7" s="18">
+        <v>5</v>
+      </c>
+      <c r="E7" s="33">
+        <f>1848*2+1344*3</f>
+        <v>7728</v>
+      </c>
+      <c r="F7" s="36">
+        <f t="shared" si="0"/>
+        <v>57960</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="28">
+        <v>7.5</v>
+      </c>
+      <c r="D8" s="29">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34">
+        <f>504*2</f>
+        <v>1008</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" si="0"/>
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26">
+        <f>SUM(D3:D8)</f>
+        <v>16</v>
+      </c>
+      <c r="E9" s="31">
+        <f>SUM(E3:E8)</f>
+        <v>24268</v>
+      </c>
+      <c r="F9" s="38">
+        <f>SUM(F3:F8)</f>
+        <v>182500</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>